--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H2">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I2">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J2">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N2">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O2">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P2">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q2">
-        <v>1337.839728328249</v>
+        <v>398.3151296924053</v>
       </c>
       <c r="R2">
-        <v>12040.55755495424</v>
+        <v>3584.836167231648</v>
       </c>
       <c r="S2">
-        <v>0.2783372667820406</v>
+        <v>0.1288492880516804</v>
       </c>
       <c r="T2">
-        <v>0.2783372667820407</v>
+        <v>0.1288492880516804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H3">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I3">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J3">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.022496</v>
       </c>
       <c r="O3">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P3">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q3">
-        <v>1042.742450710432</v>
+        <v>270.182497493856</v>
       </c>
       <c r="R3">
-        <v>9384.682056393887</v>
+        <v>2431.642477444704</v>
       </c>
       <c r="S3">
-        <v>0.2169423418536254</v>
+        <v>0.08740020112465249</v>
       </c>
       <c r="T3">
-        <v>0.2169423418536255</v>
+        <v>0.08740020112465251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H4">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I4">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J4">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N4">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q4">
-        <v>768.6571294406119</v>
+        <v>155.9567605190403</v>
       </c>
       <c r="R4">
-        <v>6917.914164965508</v>
+        <v>1403.610844671363</v>
       </c>
       <c r="S4">
-        <v>0.1599189499091747</v>
+        <v>0.05044979731310444</v>
       </c>
       <c r="T4">
-        <v>0.1599189499091747</v>
+        <v>0.05044979731310446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N5">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O5">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P5">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q5">
-        <v>317.194177628164</v>
+        <v>364.475016094535</v>
       </c>
       <c r="R5">
-        <v>2854.747598653476</v>
+        <v>3280.275144850815</v>
       </c>
       <c r="S5">
-        <v>0.06599218020720818</v>
+        <v>0.1179024918603312</v>
       </c>
       <c r="T5">
-        <v>0.06599218020720819</v>
+        <v>0.1179024918603312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>31.022496</v>
       </c>
       <c r="O6">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P6">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q6">
-        <v>247.2282943371519</v>
+        <v>247.228294337152</v>
       </c>
       <c r="R6">
         <v>2225.054649034368</v>
       </c>
       <c r="S6">
-        <v>0.05143579328667161</v>
+        <v>0.07997484237210158</v>
       </c>
       <c r="T6">
-        <v>0.05143579328667162</v>
+        <v>0.0799748423721016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N7">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O7">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P7">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q7">
-        <v>182.2442261866502</v>
+        <v>142.7069638156217</v>
       </c>
       <c r="R7">
-        <v>1640.198035679852</v>
+        <v>1284.362674340596</v>
       </c>
       <c r="S7">
-        <v>0.03791587193107661</v>
+        <v>0.04616367623760482</v>
       </c>
       <c r="T7">
-        <v>0.03791587193107662</v>
+        <v>0.04616367623760483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H8">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I8">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J8">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N8">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O8">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P8">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q8">
-        <v>386.85051347747</v>
+        <v>730.7088992814861</v>
       </c>
       <c r="R8">
-        <v>3481.65462129723</v>
+        <v>6576.380093533375</v>
       </c>
       <c r="S8">
-        <v>0.08048416584929605</v>
+        <v>0.2363739522476936</v>
       </c>
       <c r="T8">
-        <v>0.08048416584929607</v>
+        <v>0.2363739522476936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H9">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I9">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J9">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>31.022496</v>
       </c>
       <c r="O9">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P9">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q9">
-        <v>301.52001315296</v>
+        <v>495.649651825472</v>
       </c>
       <c r="R9">
-        <v>2713.68011837664</v>
+        <v>4460.846866429248</v>
       </c>
       <c r="S9">
-        <v>0.06273117367051935</v>
+        <v>0.1603356237311239</v>
       </c>
       <c r="T9">
-        <v>0.06273117367051936</v>
+        <v>0.1603356237311239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H10">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I10">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J10">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N10">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O10">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P10">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q10">
-        <v>222.2653423394678</v>
+        <v>286.1025964601895</v>
       </c>
       <c r="R10">
-        <v>2000.38808105521</v>
+        <v>2574.923368141706</v>
       </c>
       <c r="S10">
-        <v>0.04624225651038751</v>
+        <v>0.09255012706170752</v>
       </c>
       <c r="T10">
-        <v>0.04624225651038752</v>
+        <v>0.09255012706170755</v>
       </c>
     </row>
   </sheetData>
